--- a/data/hotels_by_city/Dallas/Dallas_shard_321.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_321.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="694">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Jim M</t>
+  </si>
+  <si>
     <t>06/05/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>lovwdw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r565699260-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>ivettesardina</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r584430641-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t>May 2018</t>
   </si>
   <si>
+    <t>Amy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r583158164-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -231,6 +243,9 @@
     <t>Recently stayed at this hotel! It was amazing, clean, fantastic staff! The staff at the morning breakfast buffet were top notch! Christine took care of us! She was attentive and knew our names! Great stay, great staff. Beautiful facility!</t>
   </si>
   <si>
+    <t>Gisselle R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r582651014-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -288,6 +303,9 @@
     <t>We visited my family in Arlington we were supposed to stay one night but we end up staying 3 nights in Hilton garden inn. We enjoyed the friendly staff. The room has fresh of clean room.  Lucy who clean our room was really good.  Hotel is close to all good restaurant, clean and we'll maintain.The downside is the food, not worth paying. Overall, it was a good stay.</t>
   </si>
   <si>
+    <t>cstayedatcoolsprings</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r580582306-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -303,6 +321,9 @@
     <t xml:space="preserve">This property is fairly new.  The multiple USB charging ports is a nice touch. Large shower with sliding glass doors in bathroom.  The room was clean and large. The workout room was big with more than just a few treadmills. Great value and easy to spot from interstate.  The key was to figure out which parking lot to drive thru to get to hotel. Staff was friendly. </t>
   </si>
   <si>
+    <t>julianbridges12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r580224278-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -318,6 +339,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Teffy72</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r579049284-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -333,6 +357,9 @@
     <t>Hotel seems very new. Modern and clean. Rooms are spacious and comfortable. Great breakfast. Great location just off interstate and close to shopping and restaurants. Nice charger station between the beds</t>
   </si>
   <si>
+    <t>tess4109</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r575536472-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -351,6 +378,9 @@
     <t>April 2018</t>
   </si>
   <si>
+    <t>sr0bins0n2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r575259381-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -366,6 +396,9 @@
     <t xml:space="preserve">Picked this location for a business trip and was pleased.  The location was right, the atmosphere was good.  I didn't care for the bleachy smell of the pillows but overall it was a good stay.  The front desk staff was very friendly and the lobby was clean and inviting.  </t>
   </si>
   <si>
+    <t>experiencetravelnl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r575255875-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -376,6 +409,9 @@
   </si>
   <si>
     <t>I visit the area fairly often and will be using this hotel regularly from now on! I used to stay at the Home 2 in Grand Prairie and had trouble multiple times with being double charged, having my room double booked and finding other customer’s luggage in my room, and poor customer service with the staff so, this was a breath of fresh air! Very friendly staff, love the noon check out time, and had a quick check-in and check-out!</t>
+  </si>
+  <si>
+    <t>Kelly M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r575034370-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
@@ -398,6 +434,9 @@
 The first night there I immediately called downstairs to notify the front desk that the fan in my room was not working. Since my room was so close to the highway, I was very concerned that the noise would keep me up through the night without the fan drowning out the traffic. I called several times before speaking to a company rep. and he was unsure and not helpful. He was not rude, but not helpful. I insisted that rooms have fans and he asked the manager and told me all the rooms are the same. The walls are paper thin and you can hear the neighbors talk and cough. And at 4:51 am I could hear them doing MUCH more than that. Every sound, every detail, etc. It was horrible. I kicked on the air conditioner just to kill the sound but it was too late and I was already awake. I needed my sleep because I was a time change...I attended a conference at the Hilton Garden Inn in Arlington and stayed at the hotel for three nights. Let me start by saying I don't like to leave bad reviews, but I gave them several opportunities to respond to my concerns and they did not. This hotel charges over $200 a night but it is not a $200 a night hotel! I have stayed in many hotels and this does not qualify for that rate at all. The first night there I immediately called downstairs to notify the front desk that the fan in my room was not working. Since my room was so close to the highway, I was very concerned that the noise would keep me up through the night without the fan drowning out the traffic. I called several times before speaking to a company rep. and he was unsure and not helpful. He was not rude, but not helpful. I insisted that rooms have fans and he asked the manager and told me all the rooms are the same. The walls are paper thin and you can hear the neighbors talk and cough. And at 4:51 am I could hear them doing MUCH more than that. Every sound, every detail, etc. It was horrible. I kicked on the air conditioner just to kill the sound but it was too late and I was already awake. I needed my sleep because I was a time change with travel. The following day I told the front desk person and they changed my room. Lo and behold the fan worked perfectly fine in the new room. The food in the restaurant is sub-par for a $200 a night restaurant. I was not impressed at all. The following night at 12:30 am there were all kinds of noise over my head, but I just kicked the fan on high to attempt to sleep. I was not going to stay a third night because I was so disappointed but I did not feel like moving hotels so I stayed. The third night, as I was drifting off to sleep, there was a knock on the door, and when I peeped through the hole, I saw a man so I answered "YES?" He took off running down the hallway? I called the front desk and they said they would look into it. An hour later I was sleeping and my phone starts ringing? It was a lady from the front desk at midnight to tell me she would give me 1000 points? Are you kidding me? You wake me up at midnight to tell me that? You charge me over $200 a night and I did not sleep well one night? I can't wrap my mind around how the hotel determined that place should fall in that rate status? I messaged the company on FB on day 2 but never received a response. This morning as I checked out, I told the front desk lady my disappointment. She...More</t>
   </si>
   <si>
+    <t>Stacy R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r574657369-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -416,6 +455,9 @@
     <t>This is a new hotel, roughly one year old. After reading the reviews, I gave it chance. It’s in a weird location but once you find it, you’ll appreciate the location. Close to everything! Lots of restaurants and extras. Directly on I20. That’s good and bad because that highway has lots of traffic. You won’t be disappointed with the amount of places to eat.  Now for the hotel- the staff is friendly. Mario checked me in and he was accommodating. After numerous attempts he couldn’t get the digital key to work for me. At least he tried. The lobby is welcoming in decor and the overall feel of the hotel is nice. The room had modern decor. The one pep-peeve is the detergent used to wash the sheets has a strong industrial bleechy smell. I had to wrap a pillow in my T-shirt. No safe in the room so if you have valuables you may want to contact the front desk. Ample parking for building and lots of lights at night. Since traveling by myself, safety is priority.  The hotel offers both a continental breakfast and a hot buffet  breakfast. Priced relative to a hotel. There is also a bar that offers happy hour till 8pm.  I will definitely be staying at this location again. Very happy!! The only thing that stopped it from being 5 stars is the pillow smell. More</t>
   </si>
   <si>
+    <t>lynzeelj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r574016851-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -431,6 +473,9 @@
     <t>I stayed at this hotel because it was close to our Dallas office and the company prefers we stay at Hilton Hotels.  I was pleasantly surprised with this hotel.  The room was super clean and well appointed. I liked the Kuerig Coffee maker in the room, and the Neutrogena bath products.  The pillows were heavenly!!!Also, the food at the hotel was VERY good!</t>
   </si>
   <si>
+    <t>natslasher</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r572523336-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -446,6 +491,9 @@
     <t xml:space="preserve">I pay half the price at other places for a king suite with two TVs and a sofa bed. They are definitely proud of their tiny rooms. My kids were not very comfortable. This was a premium room for 200 and some change when I usually pay 150...just saying can find cheaper. </t>
   </si>
   <si>
+    <t>johnwesleyharden</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r571876141-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -464,6 +512,9 @@
     <t>Beautiful hotel, with that said, let’s exam it! The property is situated in a place, that’s difficult to find. My room was honestly, a ridiculous example of a Hilton owned facility. Walls were paper thin, and my neighbors every movement, was heard! I tried to turn on the bathroom light, but to no avail. The nightstand light, also suffered from the same inoperable condition. Falling asleep, was difficult, because the smoke detector, kept beeping. Guess it needed to receive a battery transfusion. To make matters worse, after advising front desk, I was told “maintenance “, would be in at 5:00PM, and would take care of it. I arrived late that night, to find ‘NOTHING’, had been done. So much for Hilton quality control, and excellence in service. This is the second time in a month, I’ve been totally disappointed in a Hilton facility, it will be my last!More</t>
   </si>
   <si>
+    <t>justinh4646</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r570527345-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -479,6 +530,9 @@
     <t xml:space="preserve">Great stay great hotel.  Clean rooms, nice pool and a great staff.  No free breakfast.  Breakfast was a little on the pricey side, but kids eat free with adult purchase.  If you are a Rangers fan, know that the commute to the ballpark is a little lengthy and no trolley service from this location. </t>
   </si>
   <si>
+    <t>jewell1654</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r569769230-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -494,6 +548,9 @@
     <t xml:space="preserve">We were traveling for business and received a great rate. The hotel was new and clean. The gym was excellent. The breakfast was great as well. We will definitely stay here again when we visit Arlington! </t>
   </si>
   <si>
+    <t>HoustonDan78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r569289320-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -509,6 +566,9 @@
     <t xml:space="preserve">I only stay at this location when I visit Dallas for business once a month. The team at the front desk, Lacy, Janice, Marco and Mario always make me feel at home. Courtney and Charwonna are the best, they always provide the best customer service while I’m enjoying my fresh made to order breakfast. </t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r566565147-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -539,6 +599,9 @@
     <t>I enjoyed my stay at the Hilton Garden Inn Dallas/Arlington South.  The staff made me feel welcomed at check-in.  The hotel was clean and the room was cozy.  I will recommend this hotel to my friends, and I plan on staying here if I return back to Arlington!</t>
   </si>
   <si>
+    <t>shameekmithamo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r566325905-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -551,6 +614,9 @@
     <t xml:space="preserve">My stay at this hotel was one from the time your mom daughter walked in to the day we got ready to leave the staff was excellent the room service was great and the breakfast was awesome really enjoyed my stay here will come again </t>
   </si>
   <si>
+    <t>FedFlyer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r559465407-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -569,6 +635,9 @@
     <t>February 2018</t>
   </si>
   <si>
+    <t>STEVEN D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r558403589-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -587,6 +656,9 @@
     <t>January 2018</t>
   </si>
   <si>
+    <t>767norag</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r557403640-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -620,6 +692,9 @@
     <t>The staff was friendly, provided excellent customer service, hot breakfast, clean lobby area, free parking and location near restaurant, shopping and AT&amp;T stadium.  Our group truly enjoyed our 3 Day stay and glad we choose the Hilton Garden Inn Arlington.</t>
   </si>
   <si>
+    <t>G4791TOk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r557168612-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -632,6 +707,9 @@
     <t>We enjoyed our stay. The rooms were clean, staff friendly and location was great. My daughter and her friends even tried out the pool for a quick swim. It was late and they were out of pool towels but the front desk staff quickly located some for them. Thank you!</t>
   </si>
   <si>
+    <t>watermonster2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r556945092-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -647,6 +725,9 @@
     <t xml:space="preserve">The hotel was great, modern and comfy. Staff was friendly. Room was awesome. The pool and workout room exceeded expectations and the food was really good. Only complaint, our room wasn't cleaned while we were out b/c The cleaning staff tried to be sneaky and put our DND sign on our door </t>
   </si>
   <si>
+    <t>FawziaEssa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r555985251-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -662,6 +743,9 @@
     <t>Hotel was in a great location. beautiful lobby and dining area., close to retaurants and shopping. rooms were clean and fresh. There are no suites in this hotel just an executive huge room with nothing extra, Service was great. breakfast was good. Enjoyed my stay here. Will return to this hotel</t>
   </si>
   <si>
+    <t>Janice S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r555615596-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -677,6 +761,9 @@
     <t>I actually already wrote a review on my own...but the hotel has requested a review of the property....I am happy to write one twice as this was the nicest Hilton Garden Inn we have ever stayed in.  The room was appointed well.  The lobby so well decorated in such good taste.  Our room was large and clean...We had a microwave, a refrigerator and coffee  and coffee pot...We could not ask for any more...This was top of the line and we highly recommend if you are staying in Arlington Texas or near by.  You will not be disappointed.  Although we didn't take advantage, it had a bar and restaurant.</t>
   </si>
   <si>
+    <t>adamrS7786WC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r554815635-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -692,6 +779,9 @@
     <t xml:space="preserve">We have these sales meeting every 5-7 months in different hotels in the area. We have been holding these meetings for upwards of 10 years, in different locations. I heard nothing but genuine praise over this weeks meeting, with GLOWING remarks on the service, the rooms, the accommodation, the cleanliness, the amenities, the CATERING and the staff. I got 4 or 5 "This has been our best meeting location EVER" texts. We were absolutely thrilled with our experience. I have been instructed to use ya'll from now on ;) They are quick, efficient, kind and accommodating. They have earned our business for many years to come. </t>
   </si>
   <si>
+    <t>Johnie Ray B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r553664412-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -710,6 +800,9 @@
     <t>There are many places to eat nearby. There is a Walmart within 5 minutes.The staff is very friendly and the hotel is a more modern design. My room was big and clean. The bed was very comfortable. The Internet (complimentary)  was still very adequate.  They also have a great variety of snacks and drinks next to the check-in desk. I stayed for business and they catered our lunch. I have stayed at places that when they allotted amount of food runs out you're done eating. This wonderful staff went out of their way to make sure that the last to eat had just as much as the first. Honestly, a great stay and I can't say enough nice things about the staff at hotel. More</t>
   </si>
   <si>
+    <t>Donaldt75</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r549391144-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -728,6 +821,9 @@
     <t>December 2017</t>
   </si>
   <si>
+    <t>DDDGirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r547385039-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -758,6 +854,9 @@
     <t>I spent a night at this location as it was near the airport.It is a newer hotel and really shines as you walk inside.I had checked in using my phone app.  I was greatly warmly as a Diamond member by Yvette at the front desk.I had room 405 with a king bed. It was very comfortable and quiet.The location is within walking distance of plenty of restaurants and a movie theater.I had breakfast in the morning and was very good.</t>
   </si>
   <si>
+    <t>EKoRed1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r544351602-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -776,6 +875,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>the3pages</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r541503873-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -791,6 +893,9 @@
     <t>I have stayed at this Garden In on several occasions and have always received great service! The property is very nice and the rooms are large and comfortable. The location is perfect, for getting around in the D/FW area.</t>
   </si>
   <si>
+    <t>Edward h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r533412962-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -809,6 +914,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>113veronicaj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r530957878-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -824,6 +932,9 @@
     <t>This hotel is beautiful and clean.  It was close to shopping and restaurants.  My room was beautiful.  I wish I could have stayed longer.  The bed was so comfortable.  I will be coming back again to stay longer.</t>
   </si>
   <si>
+    <t>brianpE8565ML</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r530048113-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -839,6 +950,9 @@
     <t>I would HIGHLY recommend staying at Hilton Garden Inn Dallas/Arlington South location it was an EXCELLENT stay, I my family/friends will be back. My family and I traveled from Santa Fe, TX to watch the Cowboys/Rams play.</t>
   </si>
   <si>
+    <t>robertgU5829TZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r529776788-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -854,6 +968,9 @@
     <t>This hotel was very nice &amp; clean. The staff was very pleasant. Room was modern w/ extra pillows &amp; towels. Breakfast had so many options available buffet style as well as made to order items. Will stay here again for sure!</t>
   </si>
   <si>
+    <t>Lajuanda J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r527735883-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -875,6 +992,9 @@
     <t>Spent 3 nights at this location Sept, 2017 while in Arlington  to attend a wedding. Lovely contemporary property with multiple green spaces to enjoy when weather permits, inviting lobby to relax in and fitness center with sufficient amount of equipment. I didn't visit the pool but I'm sure it was as nice as the other amenities.  There is also meeting/event space at this locations. Excellent location close to the highway (I-20), shopping that includes a mall, restaurants and not far from AT&amp;T Stadium. Nice rooms with comfortable beds and great breakfast options. I could buy snacks, limited food stuff and  beer/wine from small market onsite which was a nice convenience. During my stay, I interacted with staff from just about every department except maintenance and everyone was super friendly and professional every time. I'm a HHonors member and like the Hilton Garden Inn brand. I can't say enough good things about this particular location. This was a leisure trip but if business calls to this area or when I'm back for pleasure, I'll definitely stay here again.More</t>
   </si>
   <si>
+    <t>christopherkJ9092DY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r519231309-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -893,6 +1013,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>glaine511</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r518512047-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -908,6 +1031,9 @@
     <t>We hosted a marriage conference for 50 couples. Everything, including the meeting and guest rooms, was perfect! The staff was very warm and friendly and the facilities are first class. There is a large workout room and pool is great. It's nice to have an indoor pool in Texas.</t>
   </si>
   <si>
+    <t>G6868DOmichaelc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r517883572-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -923,6 +1049,9 @@
     <t>This Hotel was great.  The location was perfect and very close to a Texas Ranger Game and great dining.  I will be staying here again and would recommend it to anyone travelling with your family to catch a game.</t>
   </si>
   <si>
+    <t>189af</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r517457349-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -938,6 +1067,9 @@
     <t>Great location for a game and shopping. Friendly staff. New property. Hilton standard should be higher in attention to detail for finishes. Some of the services (bar) might be too much for the location and price point.</t>
   </si>
   <si>
+    <t>skd22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r516623679-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -956,6 +1088,9 @@
     <t>We stayed here for 2 nights (Friday and Saturday).  Beautiful brand new hotel!  Great location.  Elevators are very slow.  Beds are very comfortable.  The breakfast is a nightmare.  The first morning everything was very slow and only one person was working the entire space.  I thought someone must not have shown up for work and it was a fluke.  The next morning was a lot worse,  Only one person was working the entire space again.  Every single table was full of dirty dishes.  People were sitting in the lobby, bar etc bc all tables were dirty.  People were even standing at the bar without chairs.  The most frustrating part was to look over at the front desk and see 2 people standing and doing nothing!  The gal in the breakfast area wasn't trying to clear tables she was still trying to deliver food to people standing.  This process is not working.  This is not a free breakfast so I would skip this!  The food was good, but not worth it. More</t>
   </si>
   <si>
+    <t>Cynthia C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r513357794-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -971,6 +1106,9 @@
     <t>Customer service was great. Rooms &amp; common areas very clean. Only negative is elevators are small &amp; slow. Could only hold about 4 people with luggage. Waited through 3 full elevators to get downstairs to check out.</t>
   </si>
   <si>
+    <t>787allanf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r513536702-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -983,6 +1121,9 @@
     <t>The newly redecorated Euro theme for the room decor and layout is not functional at all. The lighting in the bathroom was unacceptable! No fan in the bathroom is unacceptable! No lock on the bathroom door in unbelievable!  I no longer stay at the Hyatt because of its non functionality! Yes it looks nice but is not at all functional.  I will not stay at another garden inn.  The Hampton inn is more practical and functional in its lay out and usefulness.</t>
   </si>
   <si>
+    <t>Donwinnie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r510134970-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -998,6 +1139,9 @@
     <t>Hilton Garden InnNew hotel at this location built Dec 2016Superb facilities, great pool/exercise areaKitchen open serving excellent food by employees with very positive attitudes.Build it and they will come applies to this neat hotel.Best, Don</t>
   </si>
   <si>
+    <t>amlackey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r509813009-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1013,6 +1157,9 @@
     <t xml:space="preserve">The hotel is relatively new so the accommodations were nice.  The beds were somewhat firm but comfortable.  Breakfast is a little pricey but we booked the "bed &amp; breakfast" deal which was much more cost effective for our family of 4. </t>
   </si>
   <si>
+    <t>Mary B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r509910836-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1028,6 +1175,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>338kelleys</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r504927597-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1043,6 +1193,9 @@
     <t xml:space="preserve">New hotel. Very clean. Friendly employees. Close to wherever you want to be in Arlington, Texas. I had to use 38,000 points for a standard 2 queen room. That was fine, except I felt at least one breakfast voucher could have been complimentary. </t>
   </si>
   <si>
+    <t>peteraW9428PC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r504991779-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1064,6 +1217,9 @@
     <t>This is an excellent property. It is very clean and spacious and the staff is among the best, I have encountered. It is centrally located with access to anywhere in the DFW area. I would highly recommend this property, to anyone.</t>
   </si>
   <si>
+    <t>Edna T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r504574517-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1079,6 +1235,9 @@
     <t>The location of this is hotel is good to where I can drive 10 minutes to work.Room is clean, staff are always smiling. I used the gym for once when I saw it looking clean.  The equipment are new, feel good and I enjoyed it.</t>
   </si>
   <si>
+    <t>belyndad2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r503739671-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1097,6 +1256,9 @@
     <t>Our experience is a little different than most. We were actually booked to stay at the Marriott Residence Inn in Arlington, but they oversold their hotel (for the 2nd year in a row!) and ended up having to find us a room at a different hotel. Luckily for my husband and I, the Hilton Garden Inn had room and the Marriott put us up on their expense for 1 night. I am currently on crutches and in a walking boot for a broken foot and Marriott wanted us to move back to their facility after one night, which I told them was absolutely absurd and impossible at this point because of my foot. Thank the Lord, the Hilton staff were able to accommodate us for the duration of our stay. So I called the Marriott and spoke with the GM and expressed how displeased I was with them, but how pleased I was with the Hilton they put us up in. So, while their fail left a bitter taste in my mouth towards Marriott, the staff at the Hilton Garden Inn were amazing, courteous, and went above and beyond to call people who had reservations for Wednesday night (when the Hilton actually showed they were booked up) and were able to find a room for us to stay in for the duration of our conference. From here on out, my loyalty is with the Hilton and not Marriott! The room...Our experience is a little different than most. We were actually booked to stay at the Marriott Residence Inn in Arlington, but they oversold their hotel (for the 2nd year in a row!) and ended up having to find us a room at a different hotel. Luckily for my husband and I, the Hilton Garden Inn had room and the Marriott put us up on their expense for 1 night. I am currently on crutches and in a walking boot for a broken foot and Marriott wanted us to move back to their facility after one night, which I told them was absolutely absurd and impossible at this point because of my foot. Thank the Lord, the Hilton staff were able to accommodate us for the duration of our stay. So I called the Marriott and spoke with the GM and expressed how displeased I was with them, but how pleased I was with the Hilton they put us up in. So, while their fail left a bitter taste in my mouth towards Marriott, the staff at the Hilton Garden Inn were amazing, courteous, and went above and beyond to call people who had reservations for Wednesday night (when the Hilton actually showed they were booked up) and were able to find a room for us to stay in for the duration of our conference. From here on out, my loyalty is with the Hilton and not Marriott! The room was beautiful with that shabby chic touch that's so in right now. My only complaint was the bathroom door is in that barnwood sliding door style, and it doesn't really block out the sounds or smells. So that's unfortunate.. but the beds are amazingly comfortable and room was incredibly clean. This property just opened in January and the hotel still looks brand new! So props to the staff for maintaining things so well! More</t>
   </si>
   <si>
+    <t>718terik</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r503059697-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1112,6 +1274,9 @@
     <t>So glad we stayed at this location. Even though it was a bit of a drive from our meeting venue, it was worth it. Great rates, friendly staff!  It was worth the extra drive time! Hilton Garden Inns are always good, but this one was exceptional.</t>
   </si>
   <si>
+    <t>kathybX2812WH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r501117562-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1136,6 +1301,9 @@
     <t>So far, past experience with Hilton brand has proven great again. Thank you for a comfortable stay. My family came along with me for the trip and were thoroughly pleased with the experience at Hilton as well. We enjoy staying at the Hilton brands as often as we can.  Thank you again....Hilton, keep up the good service and good prices and great food.More</t>
   </si>
   <si>
+    <t>Ashleyhernandez92</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r500246944-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1154,6 +1322,9 @@
     <t>When we visit Arlington again, we will be returning to this hotel! Staff was nice, hotel room was clean, and they had a small grill that had great hours so if you didn't want to leave you could just stay in a relax at the comfort of the hotel. More</t>
   </si>
   <si>
+    <t>carilynj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r499940711-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1172,6 +1343,9 @@
     <t>We looked everywhere for a room in this area, everything was overpriced or oversold.  A.C. took care of us, and provided the best customer service I've had in a hotel in years.  He spoke to us by name each time he saw us after we checked in, and really gave it a personal feel.  The room was exceptionally clean, and the entire property was top-notch.  The staff from housekeeping to the people at the front desk were as professional, courteous, and helpful as you will ever find.  I would recommend this hotel to anyone, and tell A.C. the Jordans sent ya!More</t>
   </si>
   <si>
+    <t>Telesha H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r499541568-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1190,6 +1364,9 @@
     <t>This property is very nice and pretty new. This is our second time staying here, we were actually the first guest to ever stay in the hotel when it opened. It's close to many restaurants and entertainment. It's a beautiful hotel and the rooms are great. The staff was very kind and helpful, especially AC! Thank you for your assistance and kindness it was greatly appreciated!  Our stay was wonderful!More</t>
   </si>
   <si>
+    <t>ricardoe567</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r498060630-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1211,6 +1388,9 @@
     <t>The staff was extremely professional and provided awesome customer service. All areas of the hotel were clean and in order. My room was perfect and I had everything I needed for my stay. Thank you guys for making my stay an enjoyable one. More</t>
   </si>
   <si>
+    <t>Mark D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r497335361-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1229,6 +1409,9 @@
     <t>Our Church youth group stayed here for 6 nights on our mission trip in June of 2017.  We had a great sales staff to work with on our group room block. The manager and entire staff was so kind and "kid friendly" to our group. The hotel is only 6 months old...opened in January of 2017. The food there in top notch and the entire staff is wonderful! The location is next door to the Arlington Highland Shopping area. Lots of food options for large groups. The BEST hotel I've ever had for a large group of 60 !   I would highly encourage church groups going to six flags or Texas rangers events to stay there. We were 12 minutes from either venue -or The Palace in Dallas...Jerry's world...the mother ship....Cowboys stadium!More</t>
   </si>
   <si>
+    <t>D8966MSnicolej</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r496733169-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1247,6 +1430,9 @@
     <t>Very courteous staff. The rooms met my expectation.  The lobby was very welcoming and clean.  The price was reasonable, not a steal, but I well worth the money.  The location was perfect with many food choices in walking distance. And close to many other food and shopping choices if driving.More</t>
   </si>
   <si>
+    <t>Kim P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r496060311-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1265,6 +1451,9 @@
     <t>Room was spotless. Bathroom, ditto. The heart of the experience was the small restaurant, which was able to meet my sever dietary needs (allergy, etc.) both morning and night. The staff was universally agreeable and very "can do." I really cannot think of a single complaint I have. Would stay there any time again.More</t>
   </si>
   <si>
+    <t>865danetteh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r494446908-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1283,6 +1472,9 @@
     <t>The rooms are a little over priced, however, they were very clean, modern and comfortable. The staff was amazing! They were very helpful, caring and accommodating. In this area, there are a lot of dining options, entertainment and shopping.  I would definitely stay there again!More</t>
   </si>
   <si>
+    <t>debramP1460JN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r491152272-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1301,6 +1493,9 @@
     <t>It is hard to evaluate a Hilton when it was brand new on cleanliness but the Staff was extremely nice and helpful.  They had an unusual smell in hall that was unpleasant but I did not smell it in the rooms.  I forgot to report because we were so busy with the Wedding.More</t>
   </si>
   <si>
+    <t>great2bretired</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r490818990-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1319,6 +1514,9 @@
     <t>Lots of shopping all around and close to where relatives live.  We were on 5th floor and it was very quiet and we saw beautiful sunsets out of our window.  We did not opt for a breakfast package nor did we eat here because there were so many interesting places to eat but what I liked was the apples they laid out in the mornings and the nutrition bar in the afternoons.  They were both pick-me-ups during the day. I liked also that you had to swipe your room key card to enter the front lobby after 8pm.  That was a nice security feature once I figured it out.  We used our space key card in the room which powered the lights and air conditioner I think.  One thing I found strange was there was no toilet paper dispenser in the bathroom.  It wasn't a problem, just found it odd.  I loved the hair dryer hung in a bag.  The room and bathroom were spacious but it would have been nice to have a power outlet in the closet where the ironing board and full length mirror was located.  Other than in the bathroom, it was the only other mirror and when you have 3 women sharing a room, we need more outlets :)  Overall a pleasant stay.More</t>
   </si>
   <si>
+    <t>BusyBee77584</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r490206572-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1337,6 +1535,9 @@
     <t>New, very clean, and modern hotel. Rooms were nicely appointment. Great location with lots of options for dining and activities in the area. Staff was very welcoming and friendly. Loved the indoor pool! Only downside, no free breakfast. Other than that, it was great!More</t>
   </si>
   <si>
+    <t>Valorie D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r489403018-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1358,6 +1559,9 @@
     <t>It was a pleasure stating there  and I will stay again. The only thing that was wrong the breakfast was cold but I put it in the microwave...I will bring my grandchildren the next time I stay. I think they would like itMore</t>
   </si>
   <si>
+    <t>jenniferdE9179VH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r489225641-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1376,6 +1580,9 @@
     <t>Stayed therre for a family reunion. Very accommodating to us. Perhaps a little bit more variety for breakfast. But the room was spacious and very clean. The pool was indoors, but they had a fire pit outside and a bar area.. I would go there again!More</t>
   </si>
   <si>
+    <t>John D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r483776033-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1400,6 +1607,9 @@
     <t>Internet didn't work. I do not  recommend this hotel if you need to use the internet while there. Definitely not worth the cost. No one was able to really be of useful assistance. Staff needs better training in how to identify when internet is not working, as they claimed it was when it wasn't. More</t>
   </si>
   <si>
+    <t>smonahan35</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r477817445-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1427,6 +1637,9 @@
     <t>My family stayed here for a couple of days to attend my father who is in the hospital. The service was really GOOD especially the housekeeping who take care of our rooms and refresh it everyday. The room was really nice and clean and we have a very satisfactory stay. Not only that they make sure that our stay is good. Very friendly and courteous people. We would love to come back here again.More</t>
   </si>
   <si>
+    <t>Sherrie J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r477872379-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1442,6 +1655,9 @@
     <t>This is a brand new HGI and it shows.  The lobby is beautiful and decorated nicely.  The property has multiple places to sit out doors to relax.  The rooms are spacious, clean and accommodating. You don't hear people walking around or slamming doors while inside your room which is a nice change. The staff at this hotel is very friendly and willing to help with anything.More</t>
   </si>
   <si>
+    <t>aboubakars155</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r477620528-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1460,6 +1676,9 @@
     <t>i definitely enjoyed my stay. The hotel has a nice location. There are a lot of restaurants and shopping places near by. There is even an outlet shopping center within 10 minutes. I utilized the pool and the gym.More</t>
   </si>
   <si>
+    <t>475ednap</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r476190786-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1484,6 +1703,9 @@
     <t>The hotel is clean, gym and lobby has a very nice looking color combination.  The staff are very helpful. The pool are well keep clean.I like the pillow, and the towel.  Room has a good space.  Over all the hotel is clean and most of all housekeepers are friendlyKeep smilingMore</t>
   </si>
   <si>
+    <t>lisaoL2809SH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r474873183-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1508,6 +1730,9 @@
     <t>This Hilton Inn was beautiful and staff was very helpful/friendly. Our room was large and clean. Free WiFi. They had everything we needed. Nice gym/Clean pool/good food. This location had shopping/restaurants/and gaming/bowling all within walking distance.More</t>
   </si>
   <si>
+    <t>437sherryb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r474458212-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1526,6 +1751,9 @@
     <t>The check-in desk was extremely friendly and provided additional information about the surrounding area.   She also got us signed up to Hilton rewards.  We were impressed with how well the facility was decorated.  This hotel is new and had all the most up to date amenities.  We will definitely staty again.More</t>
   </si>
   <si>
+    <t>wa-mom-on-the-run</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r472820016-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1544,6 +1772,9 @@
     <t>I cant get over how friendly the staff is when I've stayed in the DFW area!  Super Clean.  The rooms were very quiet.  Very easy to get on and off the I-20.  Near good shopping and food.   Definitely recommendMore</t>
   </si>
   <si>
+    <t>christyb102</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r471012231-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1565,6 +1796,9 @@
     <t>This hotel is a very new, nice, clean hotel w/ welcoming staff and good shopping area and restaurants w/in walking distance.  Also had nice sitting areas outside and throughout the lobby for guest to enjoyMore</t>
   </si>
   <si>
+    <t>174carenh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r471013621-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1580,6 +1814,9 @@
     <t>We were expecting a "garden variety" Hilton Garden Inn, but this one felt like a luxury accomodation.  Fountains out front, modern and stylish decor inside, large room, great bathroom.  Tons of really nice restaurants nearby.  We didn't use the gym, but it looked like a professional facility -- huge and really well equipped.  We also didn't eat there or have cocktails, but the area looked very nice.   (Note: No free breakfast buffet.)  We'd definitely come back!More</t>
   </si>
   <si>
+    <t>gener324</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r470756750-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1598,6 +1835,9 @@
     <t>New hotel and price reasonable. We didn't have a reservation but staff was very accommodating. Hotel is located to restaurants in walking distance. The only draw back in breakfast is not included with stay.More</t>
   </si>
   <si>
+    <t>damianct</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r469716807-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1622,6 +1862,9 @@
     <t>The staff are wonderful, willing to help out any way they can. It's a new hotel, right next to shops and food. Very easy to navigate and find a restaurant. There's easy access to the highway. Definitely recommend it.More</t>
   </si>
   <si>
+    <t>angiac2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r469539799-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1655,6 +1898,9 @@
     <t>I wouldn't stay at this hotel again.  I could not sleep due to the roughness of the sheets. Was booked for 4 nights and only stayed 1 night.   I paid extra money for a premium king room that had a lot of empty space.  Room is set up in such a way that everything, except a single chair and floor lamp, is on one side of this rather large room.  The rest of the room is just barren.  Very odd.  The rest of the hotel looked very nice and it's a good location. Most of the staff were friendly and helpful.  If you are planning a stay here save your money and book a standard king room and bring your own sheets!More</t>
   </si>
   <si>
+    <t>Bigmaine02</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r468708911-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1673,6 +1919,9 @@
     <t>Love the service. The only thing that I would have done different is had the hotel in a different spot. Where it is located people from the high can't really see it. It should have been on the other side of 20.More</t>
   </si>
   <si>
+    <t>Brian P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r467911587-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1691,6 +1940,9 @@
     <t>This hotel's location is great! All the shopping &amp; restaurants are right out the front door with The Shops At Highland &amp; The Parks At Arlington Mall. As for the hotel it's self, can't go wrong! Rooms are super modern, clean, quiet &amp; great staff. Have cold drinks &amp; snacks in the lobby for that late night fix too!More</t>
   </si>
   <si>
+    <t>Y6309CVaprilh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r466952512-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1709,6 +1961,9 @@
     <t>Everything about our stay was great!  Staff was very friendly and helpful!  Hotel is clean and well kept. Breakfast was great.  Waiter was awesome!!!  Everything from booking to checkout was smooth and easy. More</t>
   </si>
   <si>
+    <t>meledym</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r466424029-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1727,6 +1982,9 @@
     <t>Excellent service anytime we go to Arlington to stay this will be my families go to hotel. This stay was very peaceful and close to the activities that we wanted to do for the weekend. As a travel agent I plan to book my clients at this hotelMore</t>
   </si>
   <si>
+    <t>230bradt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r465549669-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1751,6 +2009,9 @@
     <t>Hotel check-in was so nice and helpful. Room was perfectly clean and beds were second to none! Location is right in heart of Arlington shopping/entertainment/restaurant  plaza!  Was perfect stay! Rooms are essentially sound proof from outside, and i especially enjoyed the in room coffee Kurig machine! More</t>
   </si>
   <si>
+    <t>Anthem W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r465479635-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1769,6 +2030,9 @@
     <t>Great location-Near Arlington Highlands where I walked to restaurants.  Within 10 minutes of UTA. Overall very good hotel experience. No cookies and did not get an emailed receipt after I left-had to call for one.More</t>
   </si>
   <si>
+    <t>holdemplyr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r458420403-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1796,6 +2060,9 @@
     <t>Hotel is great for a stay if visiting UT Arlington with it being about 10 minutes away. There are umerous dining and shopping attractions are nearby with a variety of stores and restaurants food selections. The staff was very welcoming and efficient and the rooms were clean an tidy. If you are familiar with the Hilton Garden experience this will not disappoint. I stay at Hilton Garden because, after many years of business travel, I find them the best option in this price range.More</t>
   </si>
   <si>
+    <t>270dukem</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r458420408-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1809,6 +2076,9 @@
   </si>
   <si>
     <t>The hotel is located in a wonderful spot, the staff was awesome and nice.  Will recommend to family and friends. Any time we are in town or out of town it is a must that we stay at the Hilton Hotel.  This is a brand new facility and the staff is wonderful.More</t>
+  </si>
+  <si>
+    <t>Mar4tha</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d11779084-r436051043-Hilton_Garden_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
@@ -2334,43 +2604,47 @@
       <c r="A2" t="n">
         <v>66003</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>8359</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2384,50 +2658,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>66003</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>152362</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2445,50 +2723,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>66003</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>152363</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
         <v>61</v>
-      </c>
-      <c r="J4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" t="s">
-        <v>59</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -2512,50 +2794,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>66003</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>13978</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>68</v>
       </c>
-      <c r="K5" t="s">
-        <v>69</v>
-      </c>
-      <c r="L5" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>65</v>
-      </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2569,50 +2855,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>66003</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>152364</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2632,7 +2922,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -2645,37 +2935,37 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2689,7 +2979,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -2702,37 +2992,37 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -2756,7 +3046,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -2769,37 +3059,37 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2813,50 +3103,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>66003</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>152365</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J10" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2870,50 +3164,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>66003</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>152366</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J11" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K11" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L11" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O11" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2937,50 +3235,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>66003</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>152367</v>
+      </c>
+      <c r="C12" t="s">
+        <v>107</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="J12" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -3004,50 +3306,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>66003</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>152368</v>
+      </c>
+      <c r="C13" t="s">
+        <v>113</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="J13" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K13" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L13" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="O13" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -3071,50 +3377,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>66003</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>152369</v>
+      </c>
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="J14" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="K14" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -3138,50 +3448,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>66003</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>152370</v>
+      </c>
+      <c r="C15" t="s">
+        <v>126</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="J15" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="K15" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>119</v>
       </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>110</v>
-      </c>
       <c r="O15" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -3205,50 +3519,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>66003</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>8503</v>
+      </c>
+      <c r="C16" t="s">
+        <v>131</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J16" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K16" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="L16" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3268,50 +3586,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>66003</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>4024</v>
+      </c>
+      <c r="C17" t="s">
+        <v>138</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="J17" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K17" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="L17" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3325,50 +3647,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>66003</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>152371</v>
+      </c>
+      <c r="C18" t="s">
+        <v>145</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="J18" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K18" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L18" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -3392,50 +3718,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>66003</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>152372</v>
+      </c>
+      <c r="C19" t="s">
+        <v>151</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="J19" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="K19" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="O19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -3459,50 +3789,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>66003</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>152373</v>
+      </c>
+      <c r="C20" t="s">
+        <v>157</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="J20" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="K20" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="L20" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3516,50 +3850,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>66003</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>152374</v>
+      </c>
+      <c r="C21" t="s">
+        <v>164</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="J21" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="K21" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="L21" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -3583,50 +3921,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>66003</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>152375</v>
+      </c>
+      <c r="C22" t="s">
+        <v>170</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="J22" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="K22" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="L22" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3650,50 +3992,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>66003</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>152376</v>
+      </c>
+      <c r="C23" t="s">
+        <v>176</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="J23" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="K23" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="L23" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3707,50 +4053,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>66003</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>182</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="J24" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="K24" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="L24" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3774,50 +4124,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>66003</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>182</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="J25" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="K25" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="L25" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -3841,50 +4195,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>66003</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>152377</v>
+      </c>
+      <c r="C26" t="s">
+        <v>193</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="J26" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="K26" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="L26" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3908,50 +4266,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>66003</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>152378</v>
+      </c>
+      <c r="C27" t="s">
+        <v>198</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="J27" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="K27" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="L27" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3975,50 +4337,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>66003</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>40635</v>
+      </c>
+      <c r="C28" t="s">
+        <v>205</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="J28" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="K28" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="L28" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -4042,50 +4408,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>66003</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>152379</v>
+      </c>
+      <c r="C29" t="s">
+        <v>212</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="J29" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="K29" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="L29" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="O29" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -4109,7 +4479,7 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30">
@@ -4122,37 +4492,37 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="J30" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="K30" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="L30" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="O30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -4176,50 +4546,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>66003</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>152380</v>
+      </c>
+      <c r="C31" t="s">
+        <v>224</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="J31" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="K31" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="L31" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="O31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -4243,50 +4617,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>66003</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>152381</v>
+      </c>
+      <c r="C32" t="s">
+        <v>229</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="J32" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="K32" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="L32" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="O32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -4310,50 +4688,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>66003</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>140557</v>
+      </c>
+      <c r="C33" t="s">
+        <v>235</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="J33" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="K33" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="L33" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="O33" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -4373,50 +4755,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>66003</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>38416</v>
+      </c>
+      <c r="C34" t="s">
+        <v>241</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="J34" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="K34" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="L34" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="O34" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4440,50 +4826,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>66003</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>152382</v>
+      </c>
+      <c r="C35" t="s">
+        <v>247</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="J35" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="K35" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="L35" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="O35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4507,50 +4897,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>66003</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>152383</v>
+      </c>
+      <c r="C36" t="s">
+        <v>253</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="J36" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="K36" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="L36" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="O36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4574,50 +4968,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>66003</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>152384</v>
+      </c>
+      <c r="C37" t="s">
+        <v>260</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="J37" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="K37" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="L37" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="O37" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4641,50 +5039,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>66003</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>152385</v>
+      </c>
+      <c r="C38" t="s">
+        <v>267</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="J38" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="K38" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="L38" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="O38" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4704,7 +5106,7 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39">
@@ -4717,37 +5119,37 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="J39" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="K39" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="L39" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="O39" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -4767,50 +5169,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>66003</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>152386</v>
+      </c>
+      <c r="C40" t="s">
+        <v>278</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="J40" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="K40" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="L40" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="O40" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4834,50 +5240,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>66003</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>152387</v>
+      </c>
+      <c r="C41" t="s">
+        <v>285</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="J41" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="K41" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="L41" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="O41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4899,50 +5309,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>66003</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>152388</v>
+      </c>
+      <c r="C42" t="s">
+        <v>291</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="J42" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="K42" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="L42" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="O42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -4966,50 +5380,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>66003</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>152389</v>
+      </c>
+      <c r="C43" t="s">
+        <v>298</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="J43" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="K43" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="L43" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="O43" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -5033,50 +5451,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>66003</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>152390</v>
+      </c>
+      <c r="C44" t="s">
+        <v>304</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="J44" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="K44" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="L44" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="O44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -5100,50 +5522,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>66003</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>152391</v>
+      </c>
+      <c r="C45" t="s">
+        <v>310</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="J45" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="K45" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="L45" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="O45" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5167,50 +5593,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>66003</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>152392</v>
+      </c>
+      <c r="C46" t="s">
+        <v>316</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="J46" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="K46" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="L46" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="O46" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5234,50 +5664,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>66003</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>152393</v>
+      </c>
+      <c r="C47" t="s">
+        <v>324</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="J47" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="K47" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="L47" t="s">
-        <v>289</v>
+        <v>329</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="O47" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -5301,50 +5735,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>289</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>66003</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>152394</v>
+      </c>
+      <c r="C48" t="s">
+        <v>331</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="J48" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="K48" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="L48" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="O48" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5368,50 +5806,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>66003</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>152395</v>
+      </c>
+      <c r="C49" t="s">
+        <v>337</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="J49" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="K49" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="L49" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="O49" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5435,50 +5877,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>66003</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>152396</v>
+      </c>
+      <c r="C50" t="s">
+        <v>343</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="J50" t="s">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="K50" t="s">
-        <v>304</v>
+        <v>347</v>
       </c>
       <c r="L50" t="s">
-        <v>305</v>
+        <v>348</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="O50" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5502,41 +5948,45 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>305</v>
+        <v>348</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>66003</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>152397</v>
+      </c>
+      <c r="C51" t="s">
+        <v>349</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
       <c r="J51" t="s">
-        <v>308</v>
+        <v>352</v>
       </c>
       <c r="K51" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
       <c r="L51" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
@@ -5555,50 +6005,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>66003</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>31269</v>
+      </c>
+      <c r="C52" t="s">
+        <v>356</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>313</v>
+        <v>358</v>
       </c>
       <c r="J52" t="s">
-        <v>314</v>
+        <v>359</v>
       </c>
       <c r="K52" t="s">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="L52" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="O52" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5622,50 +6076,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>66003</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>152398</v>
+      </c>
+      <c r="C53" t="s">
+        <v>362</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="J53" t="s">
-        <v>314</v>
+        <v>359</v>
       </c>
       <c r="K53" t="s">
-        <v>319</v>
+        <v>365</v>
       </c>
       <c r="L53" t="s">
-        <v>320</v>
+        <v>366</v>
       </c>
       <c r="M53" t="n">
         <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="O53" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P53" t="n">
         <v>1</v>
@@ -5689,50 +6147,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>320</v>
+        <v>366</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>66003</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>152399</v>
+      </c>
+      <c r="C54" t="s">
+        <v>367</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>321</v>
+        <v>368</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="J54" t="s">
-        <v>323</v>
+        <v>370</v>
       </c>
       <c r="K54" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="L54" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="O54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -5746,50 +6208,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>66003</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>152400</v>
+      </c>
+      <c r="C55" t="s">
+        <v>373</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>326</v>
+        <v>374</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>327</v>
+        <v>375</v>
       </c>
       <c r="J55" t="s">
-        <v>328</v>
+        <v>376</v>
       </c>
       <c r="K55" t="s">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="L55" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="O55" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -5813,50 +6279,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>66003</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>6703</v>
+      </c>
+      <c r="C56" t="s">
+        <v>379</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>331</v>
+        <v>380</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>332</v>
+        <v>381</v>
       </c>
       <c r="J56" t="s">
-        <v>328</v>
+        <v>376</v>
       </c>
       <c r="K56" t="s">
-        <v>333</v>
+        <v>382</v>
       </c>
       <c r="L56" t="s">
-        <v>334</v>
+        <v>383</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="O56" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -5880,50 +6350,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>334</v>
+        <v>383</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>66003</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>152401</v>
+      </c>
+      <c r="C57" t="s">
+        <v>385</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>337</v>
+        <v>387</v>
       </c>
       <c r="J57" t="s">
-        <v>338</v>
+        <v>388</v>
       </c>
       <c r="K57" t="s">
-        <v>339</v>
+        <v>389</v>
       </c>
       <c r="L57" t="s">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="O57" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="P57" t="n">
         <v>1</v>
@@ -5947,50 +6421,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>340</v>
+        <v>390</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>66003</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>152402</v>
+      </c>
+      <c r="C58" t="s">
+        <v>391</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>341</v>
+        <v>392</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>342</v>
+        <v>393</v>
       </c>
       <c r="J58" t="s">
-        <v>338</v>
+        <v>388</v>
       </c>
       <c r="K58" t="s">
-        <v>343</v>
+        <v>394</v>
       </c>
       <c r="L58" t="s">
-        <v>344</v>
+        <v>395</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="O58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -6014,50 +6492,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>344</v>
+        <v>395</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>66003</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>152386</v>
+      </c>
+      <c r="C59" t="s">
+        <v>285</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>345</v>
+        <v>396</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>346</v>
+        <v>397</v>
       </c>
       <c r="J59" t="s">
-        <v>338</v>
+        <v>388</v>
       </c>
       <c r="K59" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L59" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="O59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6081,50 +6563,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>66003</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>152403</v>
+      </c>
+      <c r="C60" t="s">
+        <v>399</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>348</v>
+        <v>400</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>349</v>
+        <v>401</v>
       </c>
       <c r="J60" t="s">
-        <v>350</v>
+        <v>402</v>
       </c>
       <c r="K60" t="s">
-        <v>351</v>
+        <v>403</v>
       </c>
       <c r="L60" t="s">
-        <v>352</v>
+        <v>404</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="O60" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="P60" t="n">
         <v>1</v>
@@ -6148,50 +6634,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>352</v>
+        <v>404</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>66003</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>152404</v>
+      </c>
+      <c r="C61" t="s">
+        <v>405</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>353</v>
+        <v>406</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>354</v>
+        <v>407</v>
       </c>
       <c r="J61" t="s">
-        <v>355</v>
+        <v>408</v>
       </c>
       <c r="K61" t="s">
-        <v>356</v>
+        <v>409</v>
       </c>
       <c r="L61" t="s">
-        <v>357</v>
+        <v>410</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="O61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6215,50 +6705,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>358</v>
+        <v>411</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>66003</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>152405</v>
+      </c>
+      <c r="C62" t="s">
+        <v>412</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>359</v>
+        <v>413</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>360</v>
+        <v>414</v>
       </c>
       <c r="J62" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="K62" t="s">
-        <v>362</v>
+        <v>416</v>
       </c>
       <c r="L62" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="O62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6282,50 +6776,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>66003</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>152406</v>
+      </c>
+      <c r="C63" t="s">
+        <v>418</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>364</v>
+        <v>419</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>365</v>
+        <v>420</v>
       </c>
       <c r="J63" t="s">
-        <v>366</v>
+        <v>421</v>
       </c>
       <c r="K63" t="s">
-        <v>367</v>
+        <v>422</v>
       </c>
       <c r="L63" t="s">
-        <v>368</v>
+        <v>423</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="O63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6347,56 +6845,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>369</v>
+        <v>424</v>
       </c>
       <c r="X63" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="Y63" t="s">
-        <v>371</v>
+        <v>426</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>66003</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>152407</v>
+      </c>
+      <c r="C64" t="s">
+        <v>427</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>372</v>
+        <v>428</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>373</v>
+        <v>429</v>
       </c>
       <c r="J64" t="s">
-        <v>374</v>
+        <v>430</v>
       </c>
       <c r="K64" t="s">
-        <v>375</v>
+        <v>431</v>
       </c>
       <c r="L64" t="s">
-        <v>376</v>
+        <v>432</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="O64" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6418,56 +6920,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>369</v>
+        <v>424</v>
       </c>
       <c r="X64" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="Y64" t="s">
-        <v>377</v>
+        <v>433</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>66003</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>152408</v>
+      </c>
+      <c r="C65" t="s">
+        <v>434</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>378</v>
+        <v>435</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>379</v>
+        <v>436</v>
       </c>
       <c r="J65" t="s">
-        <v>380</v>
+        <v>437</v>
       </c>
       <c r="K65" t="s">
-        <v>381</v>
+        <v>438</v>
       </c>
       <c r="L65" t="s">
-        <v>382</v>
+        <v>439</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="O65" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -6483,56 +6989,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>369</v>
+        <v>424</v>
       </c>
       <c r="X65" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="Y65" t="s">
-        <v>383</v>
+        <v>440</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>66003</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>152409</v>
+      </c>
+      <c r="C66" t="s">
+        <v>441</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
+        <v>442</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>443</v>
+      </c>
+      <c r="J66" t="s">
+        <v>444</v>
+      </c>
+      <c r="K66" t="s">
+        <v>445</v>
+      </c>
+      <c r="L66" t="s">
+        <v>446</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
         <v>384</v>
       </c>
-      <c r="G66" t="s">
-        <v>45</v>
-      </c>
-      <c r="H66" t="s">
-        <v>46</v>
-      </c>
-      <c r="I66" t="s">
-        <v>385</v>
-      </c>
-      <c r="J66" t="s">
-        <v>386</v>
-      </c>
-      <c r="K66" t="s">
-        <v>387</v>
-      </c>
-      <c r="L66" t="s">
-        <v>388</v>
-      </c>
-      <c r="M66" t="n">
-        <v>5</v>
-      </c>
-      <c r="N66" t="s">
-        <v>335</v>
-      </c>
       <c r="O66" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -6548,56 +7058,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>369</v>
+        <v>424</v>
       </c>
       <c r="X66" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="Y66" t="s">
-        <v>389</v>
+        <v>447</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>66003</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>152410</v>
+      </c>
+      <c r="C67" t="s">
+        <v>448</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>390</v>
+        <v>449</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>391</v>
+        <v>450</v>
       </c>
       <c r="J67" t="s">
-        <v>392</v>
+        <v>451</v>
       </c>
       <c r="K67" t="s">
-        <v>393</v>
+        <v>452</v>
       </c>
       <c r="L67" t="s">
-        <v>394</v>
+        <v>453</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>395</v>
+        <v>454</v>
       </c>
       <c r="O67" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6619,56 +7133,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>369</v>
+        <v>424</v>
       </c>
       <c r="X67" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="Y67" t="s">
-        <v>396</v>
+        <v>455</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>66003</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>21068</v>
+      </c>
+      <c r="C68" t="s">
+        <v>456</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>397</v>
+        <v>457</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>398</v>
+        <v>458</v>
       </c>
       <c r="J68" t="s">
-        <v>399</v>
+        <v>459</v>
       </c>
       <c r="K68" t="s">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="L68" t="s">
-        <v>401</v>
+        <v>461</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>395</v>
+        <v>454</v>
       </c>
       <c r="O68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6690,56 +7208,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>369</v>
+        <v>424</v>
       </c>
       <c r="X68" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="Y68" t="s">
-        <v>402</v>
+        <v>462</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>66003</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>152411</v>
+      </c>
+      <c r="C69" t="s">
+        <v>463</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>403</v>
+        <v>464</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>404</v>
+        <v>465</v>
       </c>
       <c r="J69" t="s">
-        <v>405</v>
+        <v>466</v>
       </c>
       <c r="K69" t="s">
-        <v>406</v>
+        <v>467</v>
       </c>
       <c r="L69" t="s">
-        <v>407</v>
+        <v>468</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>395</v>
+        <v>454</v>
       </c>
       <c r="O69" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6761,56 +7283,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>369</v>
+        <v>424</v>
       </c>
       <c r="X69" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="Y69" t="s">
-        <v>408</v>
+        <v>469</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>66003</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>19014</v>
+      </c>
+      <c r="C70" t="s">
+        <v>470</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>409</v>
+        <v>471</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>410</v>
+        <v>472</v>
       </c>
       <c r="J70" t="s">
-        <v>411</v>
+        <v>473</v>
       </c>
       <c r="K70" t="s">
-        <v>412</v>
+        <v>474</v>
       </c>
       <c r="L70" t="s">
-        <v>413</v>
+        <v>475</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>395</v>
+        <v>454</v>
       </c>
       <c r="O70" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6832,56 +7358,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>369</v>
+        <v>424</v>
       </c>
       <c r="X70" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="Y70" t="s">
-        <v>414</v>
+        <v>476</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>66003</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>152412</v>
+      </c>
+      <c r="C71" t="s">
+        <v>477</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>415</v>
+        <v>478</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>416</v>
+        <v>479</v>
       </c>
       <c r="J71" t="s">
-        <v>417</v>
+        <v>480</v>
       </c>
       <c r="K71" t="s">
-        <v>418</v>
+        <v>481</v>
       </c>
       <c r="L71" t="s">
-        <v>419</v>
+        <v>482</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>395</v>
+        <v>454</v>
       </c>
       <c r="O71" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P71" t="n">
         <v>4</v>
@@ -6903,56 +7433,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>369</v>
+        <v>424</v>
       </c>
       <c r="X71" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="Y71" t="s">
-        <v>420</v>
+        <v>483</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>66003</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>152413</v>
+      </c>
+      <c r="C72" t="s">
+        <v>484</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>421</v>
+        <v>485</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="J72" t="s">
-        <v>423</v>
+        <v>487</v>
       </c>
       <c r="K72" t="s">
-        <v>424</v>
+        <v>488</v>
       </c>
       <c r="L72" t="s">
-        <v>425</v>
+        <v>489</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>395</v>
+        <v>454</v>
       </c>
       <c r="O72" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P72" t="n">
         <v>3</v>
@@ -6974,56 +7508,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>369</v>
+        <v>424</v>
       </c>
       <c r="X72" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="Y72" t="s">
-        <v>426</v>
+        <v>490</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>66003</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>152414</v>
+      </c>
+      <c r="C73" t="s">
+        <v>491</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>427</v>
+        <v>492</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>428</v>
+        <v>493</v>
       </c>
       <c r="J73" t="s">
-        <v>429</v>
+        <v>494</v>
       </c>
       <c r="K73" t="s">
-        <v>430</v>
+        <v>495</v>
       </c>
       <c r="L73" t="s">
-        <v>431</v>
+        <v>496</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>395</v>
+        <v>454</v>
       </c>
       <c r="O73" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -7041,56 +7579,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>369</v>
+        <v>424</v>
       </c>
       <c r="X73" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="Y73" t="s">
-        <v>432</v>
+        <v>497</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>66003</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>152415</v>
+      </c>
+      <c r="C74" t="s">
+        <v>498</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>433</v>
+        <v>499</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>434</v>
+        <v>500</v>
       </c>
       <c r="J74" t="s">
-        <v>435</v>
+        <v>501</v>
       </c>
       <c r="K74" t="s">
-        <v>436</v>
+        <v>502</v>
       </c>
       <c r="L74" t="s">
-        <v>437</v>
+        <v>503</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>395</v>
+        <v>454</v>
       </c>
       <c r="O74" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -7102,56 +7644,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>369</v>
+        <v>424</v>
       </c>
       <c r="X74" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="Y74" t="s">
-        <v>438</v>
+        <v>504</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>66003</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>152416</v>
+      </c>
+      <c r="C75" t="s">
+        <v>505</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>439</v>
+        <v>506</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>440</v>
+        <v>507</v>
       </c>
       <c r="J75" t="s">
-        <v>441</v>
+        <v>508</v>
       </c>
       <c r="K75" t="s">
-        <v>442</v>
+        <v>509</v>
       </c>
       <c r="L75" t="s">
-        <v>443</v>
+        <v>510</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>444</v>
+        <v>511</v>
       </c>
       <c r="O75" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7173,56 +7719,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>369</v>
+        <v>424</v>
       </c>
       <c r="X75" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="Y75" t="s">
-        <v>445</v>
+        <v>512</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>66003</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>152417</v>
+      </c>
+      <c r="C76" t="s">
+        <v>513</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>446</v>
+        <v>514</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>447</v>
+        <v>515</v>
       </c>
       <c r="J76" t="s">
-        <v>448</v>
+        <v>516</v>
       </c>
       <c r="K76" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="L76" t="s">
-        <v>450</v>
+        <v>518</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>444</v>
+        <v>511</v>
       </c>
       <c r="O76" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7244,56 +7794,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>369</v>
+        <v>424</v>
       </c>
       <c r="X76" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="Y76" t="s">
-        <v>451</v>
+        <v>519</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>66003</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>507</v>
+      </c>
+      <c r="C77" t="s">
+        <v>520</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>452</v>
+        <v>521</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>453</v>
+        <v>522</v>
       </c>
       <c r="J77" t="s">
-        <v>454</v>
+        <v>523</v>
       </c>
       <c r="K77" t="s">
-        <v>455</v>
+        <v>524</v>
       </c>
       <c r="L77" t="s">
-        <v>456</v>
+        <v>525</v>
       </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>444</v>
+        <v>511</v>
       </c>
       <c r="O77" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P77" t="n">
         <v>1</v>
@@ -7315,56 +7869,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
       <c r="X77" t="s">
-        <v>458</v>
+        <v>527</v>
       </c>
       <c r="Y77" t="s">
-        <v>459</v>
+        <v>528</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>66003</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>152418</v>
+      </c>
+      <c r="C78" t="s">
+        <v>529</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>460</v>
+        <v>530</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>461</v>
+        <v>531</v>
       </c>
       <c r="J78" t="s">
-        <v>462</v>
+        <v>532</v>
       </c>
       <c r="K78" t="s">
-        <v>463</v>
+        <v>533</v>
       </c>
       <c r="L78" t="s">
-        <v>464</v>
+        <v>534</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>465</v>
+        <v>535</v>
       </c>
       <c r="O78" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7382,56 +7940,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>466</v>
+        <v>536</v>
       </c>
       <c r="X78" t="s">
-        <v>467</v>
+        <v>537</v>
       </c>
       <c r="Y78" t="s">
-        <v>468</v>
+        <v>538</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>66003</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>152419</v>
+      </c>
+      <c r="C79" t="s">
+        <v>539</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>469</v>
+        <v>540</v>
       </c>
       <c r="G79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>470</v>
+        <v>541</v>
       </c>
       <c r="J79" t="s">
-        <v>462</v>
+        <v>532</v>
       </c>
       <c r="K79" t="s">
-        <v>471</v>
+        <v>542</v>
       </c>
       <c r="L79" t="s">
-        <v>472</v>
+        <v>543</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>465</v>
+        <v>535</v>
       </c>
       <c r="O79" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7453,56 +8015,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>466</v>
+        <v>536</v>
       </c>
       <c r="X79" t="s">
-        <v>467</v>
+        <v>537</v>
       </c>
       <c r="Y79" t="s">
-        <v>473</v>
+        <v>544</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>66003</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>152420</v>
+      </c>
+      <c r="C80" t="s">
+        <v>545</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>474</v>
+        <v>546</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>475</v>
+        <v>547</v>
       </c>
       <c r="J80" t="s">
-        <v>476</v>
+        <v>548</v>
       </c>
       <c r="K80" t="s">
-        <v>477</v>
+        <v>549</v>
       </c>
       <c r="L80" t="s">
-        <v>478</v>
+        <v>550</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>465</v>
+        <v>535</v>
       </c>
       <c r="O80" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7524,56 +8090,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>466</v>
+        <v>536</v>
       </c>
       <c r="X80" t="s">
-        <v>467</v>
+        <v>537</v>
       </c>
       <c r="Y80" t="s">
-        <v>479</v>
+        <v>551</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>66003</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>152421</v>
+      </c>
+      <c r="C81" t="s">
+        <v>552</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>480</v>
+        <v>553</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>481</v>
+        <v>554</v>
       </c>
       <c r="J81" t="s">
-        <v>482</v>
+        <v>555</v>
       </c>
       <c r="K81" t="s">
-        <v>483</v>
+        <v>556</v>
       </c>
       <c r="L81" t="s">
-        <v>484</v>
+        <v>557</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>465</v>
+        <v>535</v>
       </c>
       <c r="O81" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7595,56 +8165,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>485</v>
+        <v>558</v>
       </c>
       <c r="X81" t="s">
-        <v>486</v>
+        <v>559</v>
       </c>
       <c r="Y81" t="s">
-        <v>487</v>
+        <v>560</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>66003</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>152422</v>
+      </c>
+      <c r="C82" t="s">
+        <v>561</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>488</v>
+        <v>562</v>
       </c>
       <c r="G82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>489</v>
+        <v>563</v>
       </c>
       <c r="J82" t="s">
-        <v>490</v>
+        <v>564</v>
       </c>
       <c r="K82" t="s">
-        <v>491</v>
+        <v>565</v>
       </c>
       <c r="L82" t="s">
-        <v>492</v>
+        <v>566</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>465</v>
+        <v>535</v>
       </c>
       <c r="O82" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -7666,56 +8240,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>493</v>
+        <v>567</v>
       </c>
       <c r="X82" t="s">
-        <v>494</v>
+        <v>568</v>
       </c>
       <c r="Y82" t="s">
-        <v>495</v>
+        <v>569</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>66003</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>152423</v>
+      </c>
+      <c r="C83" t="s">
+        <v>570</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>496</v>
+        <v>571</v>
       </c>
       <c r="G83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>497</v>
+        <v>572</v>
       </c>
       <c r="J83" t="s">
-        <v>498</v>
+        <v>573</v>
       </c>
       <c r="K83" t="s">
-        <v>499</v>
+        <v>574</v>
       </c>
       <c r="L83" t="s">
-        <v>500</v>
+        <v>575</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>465</v>
+        <v>535</v>
       </c>
       <c r="O83" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P83" t="n">
         <v>4</v>
@@ -7737,56 +8315,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>493</v>
+        <v>567</v>
       </c>
       <c r="X83" t="s">
-        <v>494</v>
+        <v>568</v>
       </c>
       <c r="Y83" t="s">
-        <v>501</v>
+        <v>576</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>66003</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>152424</v>
+      </c>
+      <c r="C84" t="s">
+        <v>577</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>502</v>
+        <v>578</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I84" t="s">
-        <v>503</v>
+        <v>579</v>
       </c>
       <c r="J84" t="s">
-        <v>504</v>
+        <v>580</v>
       </c>
       <c r="K84" t="s">
-        <v>505</v>
+        <v>581</v>
       </c>
       <c r="L84" t="s">
-        <v>506</v>
+        <v>582</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>465</v>
+        <v>535</v>
       </c>
       <c r="O84" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -7808,56 +8390,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>493</v>
+        <v>567</v>
       </c>
       <c r="X84" t="s">
-        <v>494</v>
+        <v>568</v>
       </c>
       <c r="Y84" t="s">
-        <v>507</v>
+        <v>583</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>66003</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>152425</v>
+      </c>
+      <c r="C85" t="s">
+        <v>584</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>508</v>
+        <v>585</v>
       </c>
       <c r="G85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>509</v>
+        <v>586</v>
       </c>
       <c r="J85" t="s">
-        <v>510</v>
+        <v>587</v>
       </c>
       <c r="K85" t="s">
-        <v>511</v>
+        <v>588</v>
       </c>
       <c r="L85" t="s">
-        <v>512</v>
+        <v>589</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>513</v>
+        <v>590</v>
       </c>
       <c r="O85" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -7879,56 +8465,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>493</v>
+        <v>567</v>
       </c>
       <c r="X85" t="s">
-        <v>494</v>
+        <v>568</v>
       </c>
       <c r="Y85" t="s">
-        <v>514</v>
+        <v>591</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>66003</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>152426</v>
+      </c>
+      <c r="C86" t="s">
+        <v>592</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>515</v>
+        <v>593</v>
       </c>
       <c r="G86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I86" t="s">
-        <v>516</v>
+        <v>594</v>
       </c>
       <c r="J86" t="s">
-        <v>510</v>
+        <v>587</v>
       </c>
       <c r="K86" t="s">
-        <v>517</v>
+        <v>595</v>
       </c>
       <c r="L86" t="s">
-        <v>518</v>
+        <v>596</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>513</v>
+        <v>590</v>
       </c>
       <c r="O86" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -7950,56 +8540,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>493</v>
+        <v>567</v>
       </c>
       <c r="X86" t="s">
-        <v>494</v>
+        <v>568</v>
       </c>
       <c r="Y86" t="s">
-        <v>519</v>
+        <v>597</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>66003</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>152427</v>
+      </c>
+      <c r="C87" t="s">
+        <v>598</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>520</v>
+        <v>599</v>
       </c>
       <c r="G87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I87" t="s">
-        <v>521</v>
+        <v>600</v>
       </c>
       <c r="J87" t="s">
-        <v>522</v>
+        <v>601</v>
       </c>
       <c r="K87" t="s">
-        <v>523</v>
+        <v>602</v>
       </c>
       <c r="L87" t="s">
-        <v>524</v>
+        <v>603</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>513</v>
+        <v>590</v>
       </c>
       <c r="O87" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8021,56 +8615,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>493</v>
+        <v>567</v>
       </c>
       <c r="X87" t="s">
-        <v>494</v>
+        <v>568</v>
       </c>
       <c r="Y87" t="s">
-        <v>525</v>
+        <v>604</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>66003</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>152428</v>
+      </c>
+      <c r="C88" t="s">
+        <v>605</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>526</v>
+        <v>606</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I88" t="s">
-        <v>527</v>
+        <v>607</v>
       </c>
       <c r="J88" t="s">
-        <v>528</v>
+        <v>608</v>
       </c>
       <c r="K88" t="s">
-        <v>529</v>
+        <v>609</v>
       </c>
       <c r="L88" t="s">
-        <v>530</v>
+        <v>610</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>513</v>
+        <v>590</v>
       </c>
       <c r="O88" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8092,56 +8690,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>531</v>
+        <v>611</v>
       </c>
       <c r="X88" t="s">
-        <v>532</v>
+        <v>612</v>
       </c>
       <c r="Y88" t="s">
-        <v>533</v>
+        <v>613</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>66003</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>152429</v>
+      </c>
+      <c r="C89" t="s">
+        <v>614</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>534</v>
+        <v>615</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I89" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
       <c r="J89" t="s">
-        <v>536</v>
+        <v>617</v>
       </c>
       <c r="K89" t="s">
-        <v>537</v>
+        <v>618</v>
       </c>
       <c r="L89" t="s">
-        <v>538</v>
+        <v>619</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>513</v>
+        <v>590</v>
       </c>
       <c r="O89" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8163,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>531</v>
+        <v>611</v>
       </c>
       <c r="X89" t="s">
-        <v>532</v>
+        <v>612</v>
       </c>
       <c r="Y89" t="s">
-        <v>539</v>
+        <v>620</v>
       </c>
     </row>
     <row r="90">
@@ -8182,37 +8784,37 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>540</v>
+        <v>621</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I90" t="s">
-        <v>541</v>
+        <v>622</v>
       </c>
       <c r="J90" t="s">
-        <v>536</v>
+        <v>617</v>
       </c>
       <c r="K90" t="s">
-        <v>542</v>
+        <v>623</v>
       </c>
       <c r="L90" t="s">
-        <v>543</v>
+        <v>624</v>
       </c>
       <c r="M90" t="n">
         <v>2</v>
       </c>
       <c r="N90" t="s">
-        <v>513</v>
+        <v>590</v>
       </c>
       <c r="O90" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P90" t="n">
         <v>2</v>
@@ -8234,56 +8836,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>531</v>
+        <v>611</v>
       </c>
       <c r="X90" t="s">
-        <v>532</v>
+        <v>612</v>
       </c>
       <c r="Y90" t="s">
-        <v>544</v>
+        <v>625</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>66003</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>152430</v>
+      </c>
+      <c r="C91" t="s">
+        <v>626</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>545</v>
+        <v>627</v>
       </c>
       <c r="G91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I91" t="s">
-        <v>546</v>
+        <v>628</v>
       </c>
       <c r="J91" t="s">
-        <v>547</v>
+        <v>629</v>
       </c>
       <c r="K91" t="s">
-        <v>548</v>
+        <v>630</v>
       </c>
       <c r="L91" t="s">
-        <v>549</v>
+        <v>631</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>513</v>
+        <v>590</v>
       </c>
       <c r="O91" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8305,56 +8911,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>531</v>
+        <v>611</v>
       </c>
       <c r="X91" t="s">
-        <v>532</v>
+        <v>612</v>
       </c>
       <c r="Y91" t="s">
-        <v>550</v>
+        <v>632</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>66003</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>2467</v>
+      </c>
+      <c r="C92" t="s">
+        <v>633</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>551</v>
+        <v>634</v>
       </c>
       <c r="G92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I92" t="s">
-        <v>552</v>
+        <v>635</v>
       </c>
       <c r="J92" t="s">
-        <v>553</v>
+        <v>636</v>
       </c>
       <c r="K92" t="s">
-        <v>554</v>
+        <v>637</v>
       </c>
       <c r="L92" t="s">
-        <v>555</v>
+        <v>638</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>513</v>
+        <v>590</v>
       </c>
       <c r="O92" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P92" t="s"/>
       <c r="Q92" t="s"/>
@@ -8366,56 +8976,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>531</v>
+        <v>611</v>
       </c>
       <c r="X92" t="s">
-        <v>532</v>
+        <v>612</v>
       </c>
       <c r="Y92" t="s">
-        <v>556</v>
+        <v>639</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>66003</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>152431</v>
+      </c>
+      <c r="C93" t="s">
+        <v>640</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>557</v>
+        <v>641</v>
       </c>
       <c r="G93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I93" t="s">
-        <v>558</v>
+        <v>642</v>
       </c>
       <c r="J93" t="s">
-        <v>559</v>
+        <v>643</v>
       </c>
       <c r="K93" t="s">
-        <v>560</v>
+        <v>644</v>
       </c>
       <c r="L93" t="s">
-        <v>561</v>
+        <v>645</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>513</v>
+        <v>590</v>
       </c>
       <c r="O93" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -8437,56 +9051,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>531</v>
+        <v>611</v>
       </c>
       <c r="X93" t="s">
-        <v>532</v>
+        <v>612</v>
       </c>
       <c r="Y93" t="s">
-        <v>562</v>
+        <v>646</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>66003</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>152432</v>
+      </c>
+      <c r="C94" t="s">
+        <v>647</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>563</v>
+        <v>648</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I94" t="s">
-        <v>564</v>
+        <v>649</v>
       </c>
       <c r="J94" t="s">
-        <v>565</v>
+        <v>650</v>
       </c>
       <c r="K94" t="s">
-        <v>566</v>
+        <v>651</v>
       </c>
       <c r="L94" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>513</v>
+        <v>590</v>
       </c>
       <c r="O94" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -8508,56 +9126,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>531</v>
+        <v>611</v>
       </c>
       <c r="X94" t="s">
-        <v>532</v>
+        <v>612</v>
       </c>
       <c r="Y94" t="s">
-        <v>568</v>
+        <v>653</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>66003</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>152433</v>
+      </c>
+      <c r="C95" t="s">
+        <v>654</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>569</v>
+        <v>655</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I95" t="s">
-        <v>570</v>
+        <v>656</v>
       </c>
       <c r="J95" t="s">
-        <v>571</v>
+        <v>657</v>
       </c>
       <c r="K95" t="s">
-        <v>572</v>
+        <v>658</v>
       </c>
       <c r="L95" t="s">
-        <v>573</v>
+        <v>659</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>513</v>
+        <v>590</v>
       </c>
       <c r="O95" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -8579,56 +9201,60 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>574</v>
+        <v>660</v>
       </c>
       <c r="X95" t="s">
-        <v>575</v>
+        <v>661</v>
       </c>
       <c r="Y95" t="s">
-        <v>576</v>
+        <v>662</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>66003</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>152434</v>
+      </c>
+      <c r="C96" t="s">
+        <v>663</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>577</v>
+        <v>664</v>
       </c>
       <c r="G96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I96" t="s">
-        <v>578</v>
+        <v>665</v>
       </c>
       <c r="J96" t="s">
-        <v>579</v>
+        <v>666</v>
       </c>
       <c r="K96" t="s">
-        <v>580</v>
+        <v>667</v>
       </c>
       <c r="L96" t="s">
-        <v>581</v>
+        <v>668</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>513</v>
+        <v>590</v>
       </c>
       <c r="O96" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P96" t="n">
         <v>4</v>
@@ -8650,56 +9276,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>574</v>
+        <v>660</v>
       </c>
       <c r="X96" t="s">
-        <v>575</v>
+        <v>661</v>
       </c>
       <c r="Y96" t="s">
-        <v>582</v>
+        <v>669</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>66003</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>152435</v>
+      </c>
+      <c r="C97" t="s">
+        <v>670</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>583</v>
+        <v>671</v>
       </c>
       <c r="G97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I97" t="s">
-        <v>584</v>
+        <v>672</v>
       </c>
       <c r="J97" t="s">
-        <v>585</v>
+        <v>673</v>
       </c>
       <c r="K97" t="s">
-        <v>586</v>
+        <v>674</v>
       </c>
       <c r="L97" t="s">
-        <v>587</v>
+        <v>675</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>588</v>
+        <v>676</v>
       </c>
       <c r="O97" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P97" t="n">
         <v>4</v>
@@ -8721,56 +9351,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>589</v>
+        <v>677</v>
       </c>
       <c r="X97" t="s">
-        <v>590</v>
+        <v>678</v>
       </c>
       <c r="Y97" t="s">
-        <v>591</v>
+        <v>679</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>66003</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>152436</v>
+      </c>
+      <c r="C98" t="s">
+        <v>680</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>592</v>
+        <v>681</v>
       </c>
       <c r="G98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I98" t="s">
-        <v>593</v>
+        <v>682</v>
       </c>
       <c r="J98" t="s">
-        <v>585</v>
+        <v>673</v>
       </c>
       <c r="K98" t="s">
-        <v>594</v>
+        <v>683</v>
       </c>
       <c r="L98" t="s">
-        <v>595</v>
+        <v>684</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>588</v>
+        <v>676</v>
       </c>
       <c r="O98" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P98" t="n">
         <v>3</v>
@@ -8792,56 +9426,60 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>589</v>
+        <v>677</v>
       </c>
       <c r="X98" t="s">
-        <v>590</v>
+        <v>678</v>
       </c>
       <c r="Y98" t="s">
-        <v>596</v>
+        <v>685</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>66003</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>152437</v>
+      </c>
+      <c r="C99" t="s">
+        <v>686</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F99" t="s">
-        <v>597</v>
+        <v>687</v>
       </c>
       <c r="G99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I99" t="s">
-        <v>598</v>
+        <v>688</v>
       </c>
       <c r="J99" t="s">
-        <v>599</v>
+        <v>689</v>
       </c>
       <c r="K99" t="s">
-        <v>600</v>
+        <v>690</v>
       </c>
       <c r="L99" t="s">
-        <v>601</v>
+        <v>691</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>602</v>
+        <v>692</v>
       </c>
       <c r="O99" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P99" t="s"/>
       <c r="Q99" t="s"/>
@@ -8855,7 +9493,7 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>603</v>
+        <v>693</v>
       </c>
     </row>
   </sheetData>
